--- a/biology/Médecine/Béchir_Bennaceur/Béchir_Bennaceur.xlsx
+++ b/biology/Médecine/Béchir_Bennaceur/Béchir_Bennaceur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9chir_Bennaceur</t>
+          <t>Béchir_Bennaceur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Béchir Bennaceur (arabe : بشير بن ناصر), né le 30 novembre 1945 à Gafsa et mort le 17 janvier 2002, est un médecin tunisien.
-Professeur à la faculté de médecine de Tunis et chef du service de médecine infantile[1] à l'hôpital d'enfants de Bab Saadoun, il est l'un des pionniers de la gastro-entérologie pédiatrique en Tunisie en raison de la mise en place des bases de la réanimation et l'alimentation artificielle dans le domaine de la pédiatrie. 
+Professeur à la faculté de médecine de Tunis et chef du service de médecine infantile à l'hôpital d'enfants de Bab Saadoun, il est l'un des pionniers de la gastro-entérologie pédiatrique en Tunisie en raison de la mise en place des bases de la réanimation et l'alimentation artificielle dans le domaine de la pédiatrie. 
 Il a été l'un des élèves d'une figure de la pédiatrie en Tunisie, Béchir Hamza, qui déclara à propos de Bennaceur : 
-« C'est mon fils spirituel, il correspondait à mon tempérament, nous nous sommes côtoyés jusqu'à ses derniers instants de vie, où il a refusé l'acharnement thérapeutique[2]. »
+« C'est mon fils spirituel, il correspondait à mon tempérament, nous nous sommes côtoyés jusqu'à ses derniers instants de vie, où il a refusé l'acharnement thérapeutique. »
 </t>
         </is>
       </c>
